--- a/cancer/tf/target/test-classes/test_data_library.xlsx
+++ b/cancer/tf/target/test-classes/test_data_library.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="177">
   <si>
     <t>Фамилия</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t xml:space="preserve">1533246501000 </t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>02016620000</t>
@@ -928,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1095,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -1150,10 +1153,10 @@
         <v>170</v>
       </c>
       <c r="U2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
